--- a/温度数据/RD15003功耗测试.xlsx
+++ b/温度数据/RD15003功耗测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>机器数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
     <t>将三个测量模块连接工控机，上电后进行唤醒测试，能正常进入休眠模式。
 工控机往串口发生数据能唤醒测量模块。
 发送相应的命令，可以使对应的模块上传该模块的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板最小电流为9.8MA，外设和开关电源和线性稳压器大概有6MA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,46 +391,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +408,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A24" sqref="A24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,7 +775,7 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -780,12 +787,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2">
         <v>3</v>
       </c>
@@ -795,26 +802,26 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -826,12 +833,12 @@
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -841,30 +848,30 @@
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
@@ -876,7 +883,7 @@
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -888,12 +895,12 @@
       <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -903,26 +910,26 @@
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -934,12 +941,12 @@
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -949,64 +956,81 @@
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A24:E25"/>
     <mergeCell ref="A20:E23"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
